--- a/data/채권모음.xlsx
+++ b/data/채권모음.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,20 +1338,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>에스케이실트론44-2</t>
+          <t>애큐온캐피탈155-1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.49</v>
+        <v>5.75</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024.02.18</t>
+          <t>2023.11.13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1368,25 +1368,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>여천NCC73-1</t>
+          <t>롯데캐피탈406-2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.74</v>
+        <v>4.57</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2023.12.08</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>AA-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1398,25 +1398,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>롯데카드395-2</t>
+          <t>에스케이실트론44-2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.06</v>
+        <v>4.49</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024.07.23</t>
+          <t>2024.02.18</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AA-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1428,25 +1428,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>한국캐피탈471-2</t>
+          <t>여천NCC73-1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.59</v>
+        <v>4.74</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024.10.25</t>
+          <t>2024.03.09</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1458,25 +1458,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JB 우리캐피탈415-6</t>
+          <t>한국캐피탈496-1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.23</v>
+        <v>5.41</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025.01.13</t>
+          <t>2024.04.30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AA-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1488,25 +1488,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>하남도시공사2022-02</t>
+          <t>롯데카드395-2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.47</v>
+        <v>4.06</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025.02.14</t>
+          <t>2024.07.23</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AA-</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1518,20 +1518,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JB 우리캐피탈417-6</t>
+          <t>JB 우리캐피탈415-6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.56</v>
+        <v>4.23</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026.02.09</t>
+          <t>2025.01.13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1548,28 +1548,118 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>안산도시공사2023-1(사)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025.01.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>하남도시공사2022-02</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025.02.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JB 우리캐피탈417-6</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2026.02.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>한국전력공사채권1014</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>3.55</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>2025.01.03</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>한국투자증권</t>
         </is>

--- a/data/채권모음.xlsx
+++ b/data/채권모음.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1133,11 +1133,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1188,20 +1188,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>에스지씨에너지8-1(녹)</t>
+          <t>현대케피코8-1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.23</v>
+        <v>4.21</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.06.02</t>
+          <t>2023.06.09</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1218,20 +1218,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>현대케피코8-1</t>
+          <t>메리츠캐피탈185-1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.23</v>
+        <v>5.17</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.06.09</t>
+          <t>2023.06.28</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1248,25 +1248,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>메리츠캐피탈185-1</t>
+          <t>롯데캐피탈420-1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.18</v>
+        <v>4.15</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.06.28</t>
+          <t>2023.08.30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>AA-</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1278,25 +1278,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>롯데캐피탈420-1</t>
+          <t>하나에프앤아이182-1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.14</v>
+        <v>4.23</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.08.30</t>
+          <t>2023.09.06</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AA-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1308,20 +1308,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>하나에프앤아이182-1</t>
+          <t>애큐온캐피탈155-1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.23</v>
+        <v>5.76</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.09.06</t>
+          <t>2023.11.13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1338,25 +1338,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>애큐온캐피탈155-1</t>
+          <t>롯데캐피탈406-2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.75</v>
+        <v>4.56</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.13</t>
+          <t>2023.12.08</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1368,25 +1368,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>롯데캐피탈406-2</t>
+          <t>에스케이실트론44-2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.12.08</t>
+          <t>2024.02.18</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AA-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1398,25 +1398,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>에스케이실트론44-2</t>
+          <t>GS건설139</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.49</v>
+        <v>4.66</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024.02.18</t>
+          <t>2024.04.16</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1428,25 +1428,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>여천NCC73-1</t>
+          <t>한국캐피탈496-1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.74</v>
+        <v>5.42</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2024.04.30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1458,25 +1458,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>한국캐피탈496-1</t>
+          <t>롯데카드395-2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.41</v>
+        <v>4.05</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024.04.30</t>
+          <t>2024.07.23</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA-</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1488,20 +1488,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>롯데카드395-2</t>
+          <t>JB 우리캐피탈415-6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.06</v>
+        <v>4.23</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024.07.23</t>
+          <t>2025.01.13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1518,25 +1518,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JB 우리캐피탈415-6</t>
+          <t>안산도시공사2023-1(사)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.23</v>
+        <v>3.36</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025.01.13</t>
+          <t>2025.01.20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AA-</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1548,20 +1548,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>안산도시공사2023-1(사)</t>
+          <t>하남도시공사2022-02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025.01.20</t>
+          <t>2025.02.14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1578,25 +1578,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>하남도시공사2022-02</t>
+          <t>JB 우리캐피탈417-6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.47</v>
+        <v>4.56</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025.02.14</t>
+          <t>2026.02.09</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AA-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1608,25 +1608,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JB 우리캐피탈417-6</t>
+          <t>에이비엘생명보험1(후)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.56</v>
+        <v>5.41</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026.02.09</t>
+          <t>2032.09.29</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AA-</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1638,28 +1638,58 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>흥국생명보험8(후)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2032.09.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>AA-</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>한국전력공사채권1014</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>3.55</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>2025.01.03</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>한국투자증권</t>
         </is>
